--- a/ResultadoEleicoesDistritos/PORTALEGRE_ELVAS.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_ELVAS.xlsx
@@ -597,64 +597,64 @@
         <v>5542</v>
       </c>
       <c r="H2" t="n">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I2" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="J2" t="n">
-        <v>2325</v>
+        <v>2315</v>
       </c>
       <c r="K2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L2" t="n">
+        <v>591</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>388</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>264</v>
+      </c>
+      <c r="T2" t="n">
+        <v>411</v>
+      </c>
+      <c r="U2" t="n">
+        <v>42</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3485</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3560</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
-        <v>593</v>
-      </c>
-      <c r="M2" t="n">
-        <v>38</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>252</v>
-      </c>
-      <c r="T2" t="n">
-        <v>407</v>
-      </c>
-      <c r="U2" t="n">
-        <v>28</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3476</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3565</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
